--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/23.Lô 5-2024/499 TB ESIM_030125.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/23.Lô 5-2024/499 TB ESIM_030125.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\23.Lô 5-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAAC03E-C15F-4C24-BF88-E17D7D021D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C317B5-BC6A-4021-B0AC-6E02E6C56996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{CA5A8FBD-3A8E-4D32-9A55-C78303E13A2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{CA5A8FBD-3A8E-4D32-9A55-C78303E13A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="DS ESIM" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1501">
   <si>
     <t>8984020001150020503</t>
   </si>
@@ -3041,6 +3041,1503 @@
   </si>
   <si>
     <t>005694061006453</t>
+  </si>
+  <si>
+    <t>841388295668</t>
+  </si>
+  <si>
+    <t>841388295669</t>
+  </si>
+  <si>
+    <t>841388295670</t>
+  </si>
+  <si>
+    <t>841388295671</t>
+  </si>
+  <si>
+    <t>841388295672</t>
+  </si>
+  <si>
+    <t>841388295673</t>
+  </si>
+  <si>
+    <t>841388295674</t>
+  </si>
+  <si>
+    <t>841388295675</t>
+  </si>
+  <si>
+    <t>841388295676</t>
+  </si>
+  <si>
+    <t>841388295677</t>
+  </si>
+  <si>
+    <t>841388295678</t>
+  </si>
+  <si>
+    <t>841388295679</t>
+  </si>
+  <si>
+    <t>841388295680</t>
+  </si>
+  <si>
+    <t>841388295681</t>
+  </si>
+  <si>
+    <t>841388295682</t>
+  </si>
+  <si>
+    <t>841388295683</t>
+  </si>
+  <si>
+    <t>841388295684</t>
+  </si>
+  <si>
+    <t>841388295685</t>
+  </si>
+  <si>
+    <t>841388295686</t>
+  </si>
+  <si>
+    <t>841388295687</t>
+  </si>
+  <si>
+    <t>841388295688</t>
+  </si>
+  <si>
+    <t>841388295689</t>
+  </si>
+  <si>
+    <t>841388295690</t>
+  </si>
+  <si>
+    <t>841388295691</t>
+  </si>
+  <si>
+    <t>841388295692</t>
+  </si>
+  <si>
+    <t>841388295693</t>
+  </si>
+  <si>
+    <t>841388295694</t>
+  </si>
+  <si>
+    <t>841388295695</t>
+  </si>
+  <si>
+    <t>841388295696</t>
+  </si>
+  <si>
+    <t>841388295697</t>
+  </si>
+  <si>
+    <t>841388295698</t>
+  </si>
+  <si>
+    <t>841388295699</t>
+  </si>
+  <si>
+    <t>841388295700</t>
+  </si>
+  <si>
+    <t>841388295701</t>
+  </si>
+  <si>
+    <t>841388295702</t>
+  </si>
+  <si>
+    <t>841388295703</t>
+  </si>
+  <si>
+    <t>841388295704</t>
+  </si>
+  <si>
+    <t>841388295705</t>
+  </si>
+  <si>
+    <t>841388295706</t>
+  </si>
+  <si>
+    <t>841388295707</t>
+  </si>
+  <si>
+    <t>841388295708</t>
+  </si>
+  <si>
+    <t>841388295709</t>
+  </si>
+  <si>
+    <t>841388295710</t>
+  </si>
+  <si>
+    <t>841388295711</t>
+  </si>
+  <si>
+    <t>841388295712</t>
+  </si>
+  <si>
+    <t>841388295713</t>
+  </si>
+  <si>
+    <t>841388295714</t>
+  </si>
+  <si>
+    <t>841388295715</t>
+  </si>
+  <si>
+    <t>841388295716</t>
+  </si>
+  <si>
+    <t>841388295717</t>
+  </si>
+  <si>
+    <t>841388295718</t>
+  </si>
+  <si>
+    <t>841388295719</t>
+  </si>
+  <si>
+    <t>841388295720</t>
+  </si>
+  <si>
+    <t>841388295721</t>
+  </si>
+  <si>
+    <t>841388295722</t>
+  </si>
+  <si>
+    <t>841388295723</t>
+  </si>
+  <si>
+    <t>841388295724</t>
+  </si>
+  <si>
+    <t>841388295725</t>
+  </si>
+  <si>
+    <t>841388295726</t>
+  </si>
+  <si>
+    <t>841388295727</t>
+  </si>
+  <si>
+    <t>841388295728</t>
+  </si>
+  <si>
+    <t>841388295729</t>
+  </si>
+  <si>
+    <t>841388295730</t>
+  </si>
+  <si>
+    <t>841388295731</t>
+  </si>
+  <si>
+    <t>841388295732</t>
+  </si>
+  <si>
+    <t>841388295733</t>
+  </si>
+  <si>
+    <t>841388295734</t>
+  </si>
+  <si>
+    <t>841388295735</t>
+  </si>
+  <si>
+    <t>841388295736</t>
+  </si>
+  <si>
+    <t>841388295737</t>
+  </si>
+  <si>
+    <t>841388295738</t>
+  </si>
+  <si>
+    <t>841388295739</t>
+  </si>
+  <si>
+    <t>841388295740</t>
+  </si>
+  <si>
+    <t>841388295741</t>
+  </si>
+  <si>
+    <t>841388295742</t>
+  </si>
+  <si>
+    <t>841388295743</t>
+  </si>
+  <si>
+    <t>841388295744</t>
+  </si>
+  <si>
+    <t>841388295745</t>
+  </si>
+  <si>
+    <t>841388295746</t>
+  </si>
+  <si>
+    <t>841388295747</t>
+  </si>
+  <si>
+    <t>841388295748</t>
+  </si>
+  <si>
+    <t>841388295749</t>
+  </si>
+  <si>
+    <t>841388295750</t>
+  </si>
+  <si>
+    <t>841388295751</t>
+  </si>
+  <si>
+    <t>841388295752</t>
+  </si>
+  <si>
+    <t>841388295753</t>
+  </si>
+  <si>
+    <t>841388295754</t>
+  </si>
+  <si>
+    <t>841388295755</t>
+  </si>
+  <si>
+    <t>841388295756</t>
+  </si>
+  <si>
+    <t>841388295757</t>
+  </si>
+  <si>
+    <t>841388295758</t>
+  </si>
+  <si>
+    <t>841388295759</t>
+  </si>
+  <si>
+    <t>841388295760</t>
+  </si>
+  <si>
+    <t>841388295761</t>
+  </si>
+  <si>
+    <t>841388295762</t>
+  </si>
+  <si>
+    <t>841388295763</t>
+  </si>
+  <si>
+    <t>841388295764</t>
+  </si>
+  <si>
+    <t>841388295765</t>
+  </si>
+  <si>
+    <t>841388295766</t>
+  </si>
+  <si>
+    <t>841388295778</t>
+  </si>
+  <si>
+    <t>841388295779</t>
+  </si>
+  <si>
+    <t>841388295780</t>
+  </si>
+  <si>
+    <t>841388295781</t>
+  </si>
+  <si>
+    <t>841388295782</t>
+  </si>
+  <si>
+    <t>841388295783</t>
+  </si>
+  <si>
+    <t>841388295784</t>
+  </si>
+  <si>
+    <t>841388295785</t>
+  </si>
+  <si>
+    <t>841388295786</t>
+  </si>
+  <si>
+    <t>841388295787</t>
+  </si>
+  <si>
+    <t>841388295788</t>
+  </si>
+  <si>
+    <t>841388295789</t>
+  </si>
+  <si>
+    <t>841388295790</t>
+  </si>
+  <si>
+    <t>841388295791</t>
+  </si>
+  <si>
+    <t>841388295792</t>
+  </si>
+  <si>
+    <t>841388295793</t>
+  </si>
+  <si>
+    <t>841388295794</t>
+  </si>
+  <si>
+    <t>841388295795</t>
+  </si>
+  <si>
+    <t>841388295796</t>
+  </si>
+  <si>
+    <t>841388295797</t>
+  </si>
+  <si>
+    <t>841388295798</t>
+  </si>
+  <si>
+    <t>841388295799</t>
+  </si>
+  <si>
+    <t>841388295800</t>
+  </si>
+  <si>
+    <t>841388295801</t>
+  </si>
+  <si>
+    <t>841388295802</t>
+  </si>
+  <si>
+    <t>841388295803</t>
+  </si>
+  <si>
+    <t>841388295804</t>
+  </si>
+  <si>
+    <t>841388295805</t>
+  </si>
+  <si>
+    <t>841388295806</t>
+  </si>
+  <si>
+    <t>841388295807</t>
+  </si>
+  <si>
+    <t>841388295808</t>
+  </si>
+  <si>
+    <t>841388295809</t>
+  </si>
+  <si>
+    <t>841388295810</t>
+  </si>
+  <si>
+    <t>841388295811</t>
+  </si>
+  <si>
+    <t>841388295812</t>
+  </si>
+  <si>
+    <t>841388295813</t>
+  </si>
+  <si>
+    <t>841388295814</t>
+  </si>
+  <si>
+    <t>841388295815</t>
+  </si>
+  <si>
+    <t>841388295816</t>
+  </si>
+  <si>
+    <t>841388295817</t>
+  </si>
+  <si>
+    <t>841388295818</t>
+  </si>
+  <si>
+    <t>841388295819</t>
+  </si>
+  <si>
+    <t>841388295820</t>
+  </si>
+  <si>
+    <t>841388295821</t>
+  </si>
+  <si>
+    <t>841388295822</t>
+  </si>
+  <si>
+    <t>841388295823</t>
+  </si>
+  <si>
+    <t>841388295824</t>
+  </si>
+  <si>
+    <t>841388295825</t>
+  </si>
+  <si>
+    <t>841388295826</t>
+  </si>
+  <si>
+    <t>841388295827</t>
+  </si>
+  <si>
+    <t>841388295828</t>
+  </si>
+  <si>
+    <t>841388295829</t>
+  </si>
+  <si>
+    <t>841388295830</t>
+  </si>
+  <si>
+    <t>841388295831</t>
+  </si>
+  <si>
+    <t>841388295832</t>
+  </si>
+  <si>
+    <t>841388295833</t>
+  </si>
+  <si>
+    <t>841388295834</t>
+  </si>
+  <si>
+    <t>841388295835</t>
+  </si>
+  <si>
+    <t>841388295836</t>
+  </si>
+  <si>
+    <t>841388295837</t>
+  </si>
+  <si>
+    <t>841388295838</t>
+  </si>
+  <si>
+    <t>841388295839</t>
+  </si>
+  <si>
+    <t>841388295840</t>
+  </si>
+  <si>
+    <t>841388295841</t>
+  </si>
+  <si>
+    <t>841388295842</t>
+  </si>
+  <si>
+    <t>841388295843</t>
+  </si>
+  <si>
+    <t>841388295844</t>
+  </si>
+  <si>
+    <t>841388295845</t>
+  </si>
+  <si>
+    <t>841388295846</t>
+  </si>
+  <si>
+    <t>841388295847</t>
+  </si>
+  <si>
+    <t>841388295848</t>
+  </si>
+  <si>
+    <t>841388295849</t>
+  </si>
+  <si>
+    <t>841388295850</t>
+  </si>
+  <si>
+    <t>841388295851</t>
+  </si>
+  <si>
+    <t>841388295852</t>
+  </si>
+  <si>
+    <t>841388295853</t>
+  </si>
+  <si>
+    <t>841388295854</t>
+  </si>
+  <si>
+    <t>841388295855</t>
+  </si>
+  <si>
+    <t>841388295856</t>
+  </si>
+  <si>
+    <t>841388295857</t>
+  </si>
+  <si>
+    <t>841388295858</t>
+  </si>
+  <si>
+    <t>841388295859</t>
+  </si>
+  <si>
+    <t>841388295860</t>
+  </si>
+  <si>
+    <t>841388295861</t>
+  </si>
+  <si>
+    <t>841388295862</t>
+  </si>
+  <si>
+    <t>841388295863</t>
+  </si>
+  <si>
+    <t>841388295864</t>
+  </si>
+  <si>
+    <t>841388295865</t>
+  </si>
+  <si>
+    <t>841388295866</t>
+  </si>
+  <si>
+    <t>841388295867</t>
+  </si>
+  <si>
+    <t>841388295868</t>
+  </si>
+  <si>
+    <t>841388295869</t>
+  </si>
+  <si>
+    <t>841388295870</t>
+  </si>
+  <si>
+    <t>841388295871</t>
+  </si>
+  <si>
+    <t>841388295872</t>
+  </si>
+  <si>
+    <t>841388295873</t>
+  </si>
+  <si>
+    <t>841388295874</t>
+  </si>
+  <si>
+    <t>841388295875</t>
+  </si>
+  <si>
+    <t>841388295876</t>
+  </si>
+  <si>
+    <t>841388295877</t>
+  </si>
+  <si>
+    <t>841388296223</t>
+  </si>
+  <si>
+    <t>841388296224</t>
+  </si>
+  <si>
+    <t>841388296225</t>
+  </si>
+  <si>
+    <t>841388296226</t>
+  </si>
+  <si>
+    <t>841388296227</t>
+  </si>
+  <si>
+    <t>841388296228</t>
+  </si>
+  <si>
+    <t>841388296229</t>
+  </si>
+  <si>
+    <t>841388296230</t>
+  </si>
+  <si>
+    <t>841388296231</t>
+  </si>
+  <si>
+    <t>841388296232</t>
+  </si>
+  <si>
+    <t>841388296233</t>
+  </si>
+  <si>
+    <t>841388296234</t>
+  </si>
+  <si>
+    <t>841388296235</t>
+  </si>
+  <si>
+    <t>841388296236</t>
+  </si>
+  <si>
+    <t>841388296237</t>
+  </si>
+  <si>
+    <t>841388296238</t>
+  </si>
+  <si>
+    <t>841388296239</t>
+  </si>
+  <si>
+    <t>841388296240</t>
+  </si>
+  <si>
+    <t>841388296241</t>
+  </si>
+  <si>
+    <t>841388296242</t>
+  </si>
+  <si>
+    <t>841388296243</t>
+  </si>
+  <si>
+    <t>841388296244</t>
+  </si>
+  <si>
+    <t>841388296245</t>
+  </si>
+  <si>
+    <t>841388296246</t>
+  </si>
+  <si>
+    <t>841388296247</t>
+  </si>
+  <si>
+    <t>841388296248</t>
+  </si>
+  <si>
+    <t>841388296249</t>
+  </si>
+  <si>
+    <t>841388296250</t>
+  </si>
+  <si>
+    <t>841388296251</t>
+  </si>
+  <si>
+    <t>841388296252</t>
+  </si>
+  <si>
+    <t>841388296253</t>
+  </si>
+  <si>
+    <t>841388296254</t>
+  </si>
+  <si>
+    <t>841388296255</t>
+  </si>
+  <si>
+    <t>841388296256</t>
+  </si>
+  <si>
+    <t>841388296257</t>
+  </si>
+  <si>
+    <t>841388296258</t>
+  </si>
+  <si>
+    <t>841388296259</t>
+  </si>
+  <si>
+    <t>841388296260</t>
+  </si>
+  <si>
+    <t>841388296261</t>
+  </si>
+  <si>
+    <t>841388296262</t>
+  </si>
+  <si>
+    <t>841388296263</t>
+  </si>
+  <si>
+    <t>841388296264</t>
+  </si>
+  <si>
+    <t>841388296265</t>
+  </si>
+  <si>
+    <t>841388296266</t>
+  </si>
+  <si>
+    <t>841388296267</t>
+  </si>
+  <si>
+    <t>841388296268</t>
+  </si>
+  <si>
+    <t>841388296269</t>
+  </si>
+  <si>
+    <t>841388296270</t>
+  </si>
+  <si>
+    <t>841388296271</t>
+  </si>
+  <si>
+    <t>841388296272</t>
+  </si>
+  <si>
+    <t>841388296273</t>
+  </si>
+  <si>
+    <t>841388296274</t>
+  </si>
+  <si>
+    <t>841388296275</t>
+  </si>
+  <si>
+    <t>841388296276</t>
+  </si>
+  <si>
+    <t>841388296277</t>
+  </si>
+  <si>
+    <t>841388296278</t>
+  </si>
+  <si>
+    <t>841388296279</t>
+  </si>
+  <si>
+    <t>841388296280</t>
+  </si>
+  <si>
+    <t>841388296281</t>
+  </si>
+  <si>
+    <t>841388296282</t>
+  </si>
+  <si>
+    <t>841388296283</t>
+  </si>
+  <si>
+    <t>841388296284</t>
+  </si>
+  <si>
+    <t>841388296285</t>
+  </si>
+  <si>
+    <t>841388296286</t>
+  </si>
+  <si>
+    <t>841388296287</t>
+  </si>
+  <si>
+    <t>841388296288</t>
+  </si>
+  <si>
+    <t>841388296289</t>
+  </si>
+  <si>
+    <t>841388296290</t>
+  </si>
+  <si>
+    <t>841388296291</t>
+  </si>
+  <si>
+    <t>841388296292</t>
+  </si>
+  <si>
+    <t>841388296293</t>
+  </si>
+  <si>
+    <t>841388296294</t>
+  </si>
+  <si>
+    <t>841388296295</t>
+  </si>
+  <si>
+    <t>841388296296</t>
+  </si>
+  <si>
+    <t>841388296297</t>
+  </si>
+  <si>
+    <t>841388296298</t>
+  </si>
+  <si>
+    <t>841388296299</t>
+  </si>
+  <si>
+    <t>841388296300</t>
+  </si>
+  <si>
+    <t>841388296301</t>
+  </si>
+  <si>
+    <t>841388296302</t>
+  </si>
+  <si>
+    <t>841388296303</t>
+  </si>
+  <si>
+    <t>841388296304</t>
+  </si>
+  <si>
+    <t>841388296305</t>
+  </si>
+  <si>
+    <t>841388296306</t>
+  </si>
+  <si>
+    <t>841388296307</t>
+  </si>
+  <si>
+    <t>841388296308</t>
+  </si>
+  <si>
+    <t>841388296309</t>
+  </si>
+  <si>
+    <t>841388296310</t>
+  </si>
+  <si>
+    <t>841388296311</t>
+  </si>
+  <si>
+    <t>841388296312</t>
+  </si>
+  <si>
+    <t>841388296313</t>
+  </si>
+  <si>
+    <t>841388296314</t>
+  </si>
+  <si>
+    <t>841388296315</t>
+  </si>
+  <si>
+    <t>841388296316</t>
+  </si>
+  <si>
+    <t>841388296317</t>
+  </si>
+  <si>
+    <t>841388296318</t>
+  </si>
+  <si>
+    <t>841388296319</t>
+  </si>
+  <si>
+    <t>841388296320</t>
+  </si>
+  <si>
+    <t>841388296321</t>
+  </si>
+  <si>
+    <t>841388296322</t>
+  </si>
+  <si>
+    <t>841388296556</t>
+  </si>
+  <si>
+    <t>841388296557</t>
+  </si>
+  <si>
+    <t>841388296558</t>
+  </si>
+  <si>
+    <t>841388296559</t>
+  </si>
+  <si>
+    <t>841388296560</t>
+  </si>
+  <si>
+    <t>841388296561</t>
+  </si>
+  <si>
+    <t>841388296562</t>
+  </si>
+  <si>
+    <t>841388296563</t>
+  </si>
+  <si>
+    <t>841388296564</t>
+  </si>
+  <si>
+    <t>841388296565</t>
+  </si>
+  <si>
+    <t>841388296566</t>
+  </si>
+  <si>
+    <t>841388296567</t>
+  </si>
+  <si>
+    <t>841388296568</t>
+  </si>
+  <si>
+    <t>841388296569</t>
+  </si>
+  <si>
+    <t>841388296570</t>
+  </si>
+  <si>
+    <t>841388296571</t>
+  </si>
+  <si>
+    <t>841388296572</t>
+  </si>
+  <si>
+    <t>841388296573</t>
+  </si>
+  <si>
+    <t>841388296574</t>
+  </si>
+  <si>
+    <t>841388296575</t>
+  </si>
+  <si>
+    <t>841388296576</t>
+  </si>
+  <si>
+    <t>841388296577</t>
+  </si>
+  <si>
+    <t>841388296578</t>
+  </si>
+  <si>
+    <t>841388296579</t>
+  </si>
+  <si>
+    <t>841388296580</t>
+  </si>
+  <si>
+    <t>841388296581</t>
+  </si>
+  <si>
+    <t>841388296582</t>
+  </si>
+  <si>
+    <t>841388296583</t>
+  </si>
+  <si>
+    <t>841388296584</t>
+  </si>
+  <si>
+    <t>841388296585</t>
+  </si>
+  <si>
+    <t>841388296586</t>
+  </si>
+  <si>
+    <t>841388296587</t>
+  </si>
+  <si>
+    <t>841388296588</t>
+  </si>
+  <si>
+    <t>841388296589</t>
+  </si>
+  <si>
+    <t>841388296590</t>
+  </si>
+  <si>
+    <t>841388296591</t>
+  </si>
+  <si>
+    <t>841388296592</t>
+  </si>
+  <si>
+    <t>841388296593</t>
+  </si>
+  <si>
+    <t>841388296594</t>
+  </si>
+  <si>
+    <t>841388296595</t>
+  </si>
+  <si>
+    <t>841388296596</t>
+  </si>
+  <si>
+    <t>841388296597</t>
+  </si>
+  <si>
+    <t>841388296598</t>
+  </si>
+  <si>
+    <t>841388296599</t>
+  </si>
+  <si>
+    <t>841388296600</t>
+  </si>
+  <si>
+    <t>841388296601</t>
+  </si>
+  <si>
+    <t>841388296602</t>
+  </si>
+  <si>
+    <t>841388296603</t>
+  </si>
+  <si>
+    <t>841388296604</t>
+  </si>
+  <si>
+    <t>841388296605</t>
+  </si>
+  <si>
+    <t>841388296606</t>
+  </si>
+  <si>
+    <t>841388296607</t>
+  </si>
+  <si>
+    <t>841388296608</t>
+  </si>
+  <si>
+    <t>841388296609</t>
+  </si>
+  <si>
+    <t>841388296610</t>
+  </si>
+  <si>
+    <t>841388296611</t>
+  </si>
+  <si>
+    <t>841388296612</t>
+  </si>
+  <si>
+    <t>841388296613</t>
+  </si>
+  <si>
+    <t>841388296614</t>
+  </si>
+  <si>
+    <t>841388296615</t>
+  </si>
+  <si>
+    <t>841388296616</t>
+  </si>
+  <si>
+    <t>841388296617</t>
+  </si>
+  <si>
+    <t>841388296618</t>
+  </si>
+  <si>
+    <t>841388296619</t>
+  </si>
+  <si>
+    <t>841388296620</t>
+  </si>
+  <si>
+    <t>841388296621</t>
+  </si>
+  <si>
+    <t>841388296622</t>
+  </si>
+  <si>
+    <t>841388296623</t>
+  </si>
+  <si>
+    <t>841388296624</t>
+  </si>
+  <si>
+    <t>841388296625</t>
+  </si>
+  <si>
+    <t>841388296626</t>
+  </si>
+  <si>
+    <t>841388296627</t>
+  </si>
+  <si>
+    <t>841388296628</t>
+  </si>
+  <si>
+    <t>841388296629</t>
+  </si>
+  <si>
+    <t>841388296630</t>
+  </si>
+  <si>
+    <t>841388296631</t>
+  </si>
+  <si>
+    <t>841388296632</t>
+  </si>
+  <si>
+    <t>841388296633</t>
+  </si>
+  <si>
+    <t>841388296634</t>
+  </si>
+  <si>
+    <t>841388296635</t>
+  </si>
+  <si>
+    <t>841388296636</t>
+  </si>
+  <si>
+    <t>841388296637</t>
+  </si>
+  <si>
+    <t>841388296638</t>
+  </si>
+  <si>
+    <t>841388296639</t>
+  </si>
+  <si>
+    <t>841388296640</t>
+  </si>
+  <si>
+    <t>841388296641</t>
+  </si>
+  <si>
+    <t>841388296642</t>
+  </si>
+  <si>
+    <t>841388296643</t>
+  </si>
+  <si>
+    <t>841388296644</t>
+  </si>
+  <si>
+    <t>841388296645</t>
+  </si>
+  <si>
+    <t>841388296646</t>
+  </si>
+  <si>
+    <t>841388296647</t>
+  </si>
+  <si>
+    <t>841388296648</t>
+  </si>
+  <si>
+    <t>841388296649</t>
+  </si>
+  <si>
+    <t>841388296650</t>
+  </si>
+  <si>
+    <t>841388296651</t>
+  </si>
+  <si>
+    <t>841388296652</t>
+  </si>
+  <si>
+    <t>841388296653</t>
+  </si>
+  <si>
+    <t>841388296654</t>
+  </si>
+  <si>
+    <t>841388296655</t>
+  </si>
+  <si>
+    <t>841388505445</t>
+  </si>
+  <si>
+    <t>841388505446</t>
+  </si>
+  <si>
+    <t>841388505447</t>
+  </si>
+  <si>
+    <t>841388505448</t>
+  </si>
+  <si>
+    <t>841388505449</t>
+  </si>
+  <si>
+    <t>841388505450</t>
+  </si>
+  <si>
+    <t>841388505451</t>
+  </si>
+  <si>
+    <t>841388505452</t>
+  </si>
+  <si>
+    <t>841388505453</t>
+  </si>
+  <si>
+    <t>841388505454</t>
+  </si>
+  <si>
+    <t>841388505455</t>
+  </si>
+  <si>
+    <t>841388505456</t>
+  </si>
+  <si>
+    <t>841388505457</t>
+  </si>
+  <si>
+    <t>841388505458</t>
+  </si>
+  <si>
+    <t>841388505459</t>
+  </si>
+  <si>
+    <t>841388505460</t>
+  </si>
+  <si>
+    <t>841388505461</t>
+  </si>
+  <si>
+    <t>841388505462</t>
+  </si>
+  <si>
+    <t>841388505463</t>
+  </si>
+  <si>
+    <t>841388505464</t>
+  </si>
+  <si>
+    <t>841388505465</t>
+  </si>
+  <si>
+    <t>841388505466</t>
+  </si>
+  <si>
+    <t>841388505467</t>
+  </si>
+  <si>
+    <t>841388505468</t>
+  </si>
+  <si>
+    <t>841388505469</t>
+  </si>
+  <si>
+    <t>841388505470</t>
+  </si>
+  <si>
+    <t>841388505471</t>
+  </si>
+  <si>
+    <t>841388505472</t>
+  </si>
+  <si>
+    <t>841388505473</t>
+  </si>
+  <si>
+    <t>841388505474</t>
+  </si>
+  <si>
+    <t>841388505475</t>
+  </si>
+  <si>
+    <t>841388505476</t>
+  </si>
+  <si>
+    <t>841388505477</t>
+  </si>
+  <si>
+    <t>841388505478</t>
+  </si>
+  <si>
+    <t>841388505479</t>
+  </si>
+  <si>
+    <t>841388505480</t>
+  </si>
+  <si>
+    <t>841388505481</t>
+  </si>
+  <si>
+    <t>841388505482</t>
+  </si>
+  <si>
+    <t>841388505483</t>
+  </si>
+  <si>
+    <t>841388505484</t>
+  </si>
+  <si>
+    <t>841388505485</t>
+  </si>
+  <si>
+    <t>841388505486</t>
+  </si>
+  <si>
+    <t>841388505487</t>
+  </si>
+  <si>
+    <t>841388505488</t>
+  </si>
+  <si>
+    <t>841388505489</t>
+  </si>
+  <si>
+    <t>841388505490</t>
+  </si>
+  <si>
+    <t>841388505491</t>
+  </si>
+  <si>
+    <t>841388505492</t>
+  </si>
+  <si>
+    <t>841388505493</t>
+  </si>
+  <si>
+    <t>841388505494</t>
+  </si>
+  <si>
+    <t>841388505495</t>
+  </si>
+  <si>
+    <t>841388505496</t>
+  </si>
+  <si>
+    <t>841388505497</t>
+  </si>
+  <si>
+    <t>841388505498</t>
+  </si>
+  <si>
+    <t>841388505499</t>
+  </si>
+  <si>
+    <t>841388505500</t>
+  </si>
+  <si>
+    <t>841388505501</t>
+  </si>
+  <si>
+    <t>841388505502</t>
+  </si>
+  <si>
+    <t>841388505503</t>
+  </si>
+  <si>
+    <t>841388505504</t>
+  </si>
+  <si>
+    <t>841388505505</t>
+  </si>
+  <si>
+    <t>841388505506</t>
+  </si>
+  <si>
+    <t>841388505507</t>
+  </si>
+  <si>
+    <t>841388505508</t>
+  </si>
+  <si>
+    <t>841388505509</t>
+  </si>
+  <si>
+    <t>841388505510</t>
+  </si>
+  <si>
+    <t>841388505511</t>
+  </si>
+  <si>
+    <t>841388505512</t>
+  </si>
+  <si>
+    <t>841388505513</t>
+  </si>
+  <si>
+    <t>841388505514</t>
+  </si>
+  <si>
+    <t>841388505515</t>
+  </si>
+  <si>
+    <t>841388505516</t>
+  </si>
+  <si>
+    <t>841388505517</t>
+  </si>
+  <si>
+    <t>841388505518</t>
+  </si>
+  <si>
+    <t>841388505519</t>
+  </si>
+  <si>
+    <t>841388505520</t>
+  </si>
+  <si>
+    <t>841388505521</t>
+  </si>
+  <si>
+    <t>841388505522</t>
+  </si>
+  <si>
+    <t>841388505523</t>
+  </si>
+  <si>
+    <t>841388505524</t>
+  </si>
+  <si>
+    <t>841388505525</t>
+  </si>
+  <si>
+    <t>841388505526</t>
+  </si>
+  <si>
+    <t>841388505527</t>
+  </si>
+  <si>
+    <t>841388505528</t>
+  </si>
+  <si>
+    <t>841388505529</t>
+  </si>
+  <si>
+    <t>841388505530</t>
+  </si>
+  <si>
+    <t>841388505531</t>
+  </si>
+  <si>
+    <t>841388505532</t>
+  </si>
+  <si>
+    <t>841388505533</t>
+  </si>
+  <si>
+    <t>841388505534</t>
+  </si>
+  <si>
+    <t>841388505535</t>
+  </si>
+  <si>
+    <t>841388505536</t>
+  </si>
+  <si>
+    <t>841388505537</t>
+  </si>
+  <si>
+    <t>841388505538</t>
+  </si>
+  <si>
+    <t>841388505539</t>
+  </si>
+  <si>
+    <t>841388505540</t>
+  </si>
+  <si>
+    <t>841388505541</t>
+  </si>
+  <si>
+    <t>841388505542</t>
+  </si>
+  <si>
+    <t>841388505543</t>
+  </si>
+  <si>
+    <t>841388505544</t>
   </si>
 </sst>
 </file>
@@ -3088,12 +4585,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3123,7 +4626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3148,6 +4651,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3466,8 +4972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C83A1FC-C6CB-4A75-BDD1-521DEA9069A7}">
   <dimension ref="A1:C500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7989,8 +9495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC61F75D-F49D-4139-ADC5-6D44EE2C160B}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B51"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8016,6 +9522,9 @@
       <c r="B2" s="2" t="s">
         <v>952</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8024,6 +9533,9 @@
       <c r="B3" s="2" t="s">
         <v>950</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -8032,6 +9544,9 @@
       <c r="B4" s="2" t="s">
         <v>951</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -8040,6 +9555,9 @@
       <c r="B5" s="2" t="s">
         <v>949</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -8048,6 +9566,9 @@
       <c r="B6" s="2" t="s">
         <v>948</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -8056,6 +9577,9 @@
       <c r="B7" s="2" t="s">
         <v>947</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -8064,6 +9588,9 @@
       <c r="B8" s="2" t="s">
         <v>946</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -8072,6 +9599,9 @@
       <c r="B9" s="2" t="s">
         <v>945</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -8080,6 +9610,9 @@
       <c r="B10" s="2" t="s">
         <v>943</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -8088,6 +9621,9 @@
       <c r="B11" s="2" t="s">
         <v>944</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -8096,6 +9632,9 @@
       <c r="B12" s="2" t="s">
         <v>942</v>
       </c>
+      <c r="C12" s="10" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -8104,6 +9643,9 @@
       <c r="B13" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -8112,6 +9654,9 @@
       <c r="B14" s="2" t="s">
         <v>940</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -8120,6 +9665,9 @@
       <c r="B15" s="2" t="s">
         <v>938</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -8128,285 +9676,393 @@
       <c r="B16" s="2" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>904</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -8416,10 +10072,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E718F82-3143-4DE8-B872-34F84EC6994A}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8445,6 +10101,9 @@
       <c r="B2" s="9" t="s">
         <v>1001</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -8453,6 +10112,9 @@
       <c r="B3" s="9" t="s">
         <v>1000</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -8461,6 +10123,9 @@
       <c r="B4" s="9" t="s">
         <v>998</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -8469,6 +10134,9 @@
       <c r="B5" s="9" t="s">
         <v>997</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -8477,6 +10145,9 @@
       <c r="B6" s="9" t="s">
         <v>999</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -8485,6 +10156,9 @@
       <c r="B7" s="9" t="s">
         <v>996</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -8493,6 +10167,9 @@
       <c r="B8" s="9" t="s">
         <v>995</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -8501,6 +10178,9 @@
       <c r="B9" s="9" t="s">
         <v>994</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -8509,6 +10189,9 @@
       <c r="B10" s="9" t="s">
         <v>992</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -8517,6 +10200,9 @@
       <c r="B11" s="9" t="s">
         <v>991</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -8525,6 +10211,9 @@
       <c r="B12" s="9" t="s">
         <v>993</v>
       </c>
+      <c r="C12" s="10" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -8533,6 +10222,9 @@
       <c r="B13" s="9" t="s">
         <v>988</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -8541,6 +10233,9 @@
       <c r="B14" s="9" t="s">
         <v>989</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -8549,6 +10244,9 @@
       <c r="B15" s="9" t="s">
         <v>990</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -8557,278 +10255,389 @@
       <c r="B16" s="9" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>953</v>
       </c>
+      <c r="C50" s="10" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8839,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B757AA88-C489-4626-A382-B6B61C29440C}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8866,6 +10675,9 @@
       <c r="B2" s="2" t="s">
         <v>583</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8874,6 +10686,9 @@
       <c r="B3" s="2" t="s">
         <v>582</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>1379</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -8882,6 +10697,9 @@
       <c r="B4" s="2" t="s">
         <v>581</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -8890,6 +10708,9 @@
       <c r="B5" s="2" t="s">
         <v>547</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>1381</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -8898,6 +10719,9 @@
       <c r="B6" s="2" t="s">
         <v>545</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>1382</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -8906,6 +10730,9 @@
       <c r="B7" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -8914,6 +10741,9 @@
       <c r="B8" s="2" t="s">
         <v>544</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -8922,6 +10752,9 @@
       <c r="B9" s="2" t="s">
         <v>542</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -8930,6 +10763,9 @@
       <c r="B10" s="2" t="s">
         <v>543</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -8938,6 +10774,9 @@
       <c r="B11" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -8946,6 +10785,9 @@
       <c r="B12" s="2" t="s">
         <v>541</v>
       </c>
+      <c r="C12" s="10" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -8954,6 +10796,9 @@
       <c r="B13" s="2" t="s">
         <v>539</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -8962,6 +10807,9 @@
       <c r="B14" s="2" t="s">
         <v>537</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -8970,6 +10818,9 @@
       <c r="B15" s="2" t="s">
         <v>538</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -8978,285 +10829,393 @@
       <c r="B16" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>397</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>399</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>400</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>402</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>405</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>406</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>407</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>408</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>409</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>411</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>414</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>416</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>419</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>421</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>422</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>424</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>425</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>578</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
@@ -9269,7 +11228,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9295,6 +11254,9 @@
       <c r="B2" s="2" t="s">
         <v>551</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -9303,6 +11265,9 @@
       <c r="B3" s="2" t="s">
         <v>552</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>1352</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9311,6 +11276,9 @@
       <c r="B4" s="2" t="s">
         <v>553</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>1353</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -9319,6 +11287,9 @@
       <c r="B5" s="2" t="s">
         <v>556</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>1354</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -9327,6 +11298,9 @@
       <c r="B6" s="2" t="s">
         <v>555</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -9335,6 +11309,9 @@
       <c r="B7" s="2" t="s">
         <v>554</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -9343,6 +11320,9 @@
       <c r="B8" s="2" t="s">
         <v>574</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>1357</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -9351,6 +11331,9 @@
       <c r="B9" s="2" t="s">
         <v>572</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -9359,6 +11342,9 @@
       <c r="B10" s="2" t="s">
         <v>573</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -9367,6 +11353,9 @@
       <c r="B11" s="2" t="s">
         <v>571</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>1360</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -9375,6 +11364,9 @@
       <c r="B12" s="2" t="s">
         <v>570</v>
       </c>
+      <c r="C12" s="10" t="s">
+        <v>1361</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -9383,6 +11375,9 @@
       <c r="B13" s="2" t="s">
         <v>569</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>1362</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -9391,6 +11386,9 @@
       <c r="B14" s="2" t="s">
         <v>567</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>1363</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -9399,6 +11397,9 @@
       <c r="B15" s="2" t="s">
         <v>568</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -9407,285 +11408,393 @@
       <c r="B16" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>364</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>372</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>373</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>426</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>429</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>432</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>433</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>435</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>438</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>439</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>441</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>445</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>446</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>447</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>638</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1450</v>
       </c>
     </row>
   </sheetData>
@@ -9697,8 +11806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994CDB1D-F221-47AD-9102-7CBD77F902A2}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9724,6 +11833,9 @@
       <c r="B2" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>1451</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -9732,6 +11844,9 @@
       <c r="B3" s="2" t="s">
         <v>639</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>1452</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9740,6 +11855,9 @@
       <c r="B4" s="2" t="s">
         <v>588</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>1453</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -9748,6 +11866,9 @@
       <c r="B5" s="2" t="s">
         <v>589</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -9756,6 +11877,9 @@
       <c r="B6" s="2" t="s">
         <v>587</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -9764,6 +11888,9 @@
       <c r="B7" s="2" t="s">
         <v>641</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>1456</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -9772,6 +11899,9 @@
       <c r="B8" s="2" t="s">
         <v>642</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>1457</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -9780,6 +11910,9 @@
       <c r="B9" s="2" t="s">
         <v>643</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -9788,6 +11921,9 @@
       <c r="B10" s="2" t="s">
         <v>651</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>1459</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -9796,6 +11932,9 @@
       <c r="B11" s="2" t="s">
         <v>650</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -9804,6 +11943,9 @@
       <c r="B12" s="2" t="s">
         <v>652</v>
       </c>
+      <c r="C12" s="10" t="s">
+        <v>1461</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -9812,6 +11954,9 @@
       <c r="B13" s="2" t="s">
         <v>649</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>1462</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -9820,6 +11965,9 @@
       <c r="B14" s="2" t="s">
         <v>648</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>1463</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -9828,6 +11976,9 @@
       <c r="B15" s="2" t="s">
         <v>647</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -9836,285 +11987,393 @@
       <c r="B16" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>466</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>468</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>469</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>470</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>471</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>472</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>473</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>475</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>478</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>479</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>480</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>482</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>483</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>484</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>485</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>486</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>487</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>488</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>489</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>490</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>491</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>492</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>493</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>494</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>495</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>496</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>497</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>498</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>607</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -10126,8 +12385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6730D51D-9AEF-471E-B806-2F057AEFBC26}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10153,6 +12412,9 @@
       <c r="B2" s="2" t="s">
         <v>701</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>1301</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -10161,6 +12423,9 @@
       <c r="B3" s="2" t="s">
         <v>703</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -10169,6 +12434,9 @@
       <c r="B4" s="2" t="s">
         <v>690</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>1303</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -10177,6 +12445,9 @@
       <c r="B5" s="2" t="s">
         <v>689</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>1304</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -10185,6 +12456,9 @@
       <c r="B6" s="2" t="s">
         <v>691</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>1305</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -10193,6 +12467,9 @@
       <c r="B7" s="2" t="s">
         <v>700</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>1306</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -10201,6 +12478,9 @@
       <c r="B8" s="2" t="s">
         <v>699</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>1307</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -10209,6 +12489,9 @@
       <c r="B9" s="2" t="s">
         <v>698</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>1308</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -10217,6 +12500,9 @@
       <c r="B10" s="2" t="s">
         <v>688</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>1309</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -10225,6 +12511,9 @@
       <c r="B11" s="2" t="s">
         <v>687</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>1310</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -10233,6 +12522,9 @@
       <c r="B12" s="2" t="s">
         <v>686</v>
       </c>
+      <c r="C12" s="10" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -10241,6 +12533,9 @@
       <c r="B13" s="2" t="s">
         <v>697</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>1312</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -10249,6 +12544,9 @@
       <c r="B14" s="2" t="s">
         <v>696</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -10257,6 +12555,9 @@
       <c r="B15" s="2" t="s">
         <v>695</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -10265,285 +12566,393 @@
       <c r="B16" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>325</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>338</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>340</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>344</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>653</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -10555,8 +12964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ED256D-78C2-48D1-8073-A9FCFFF16615}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10582,6 +12991,9 @@
       <c r="B2" s="2" t="s">
         <v>744</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -10590,6 +13002,9 @@
       <c r="B3" s="2" t="s">
         <v>747</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -10598,6 +13013,9 @@
       <c r="B4" s="2" t="s">
         <v>746</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>1253</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -10606,6 +13024,9 @@
       <c r="B5" s="2" t="s">
         <v>748</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -10614,6 +13035,9 @@
       <c r="B6" s="2" t="s">
         <v>750</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>1255</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -10622,6 +13046,9 @@
       <c r="B7" s="2" t="s">
         <v>751</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>1256</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -10630,6 +13057,9 @@
       <c r="B8" s="2" t="s">
         <v>749</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>1257</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -10638,6 +13068,9 @@
       <c r="B9" s="2" t="s">
         <v>756</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>1258</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -10646,6 +13079,9 @@
       <c r="B10" s="2" t="s">
         <v>755</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>1259</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -10654,6 +13090,9 @@
       <c r="B11" s="2" t="s">
         <v>757</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -10662,6 +13101,9 @@
       <c r="B12" s="2" t="s">
         <v>779</v>
       </c>
+      <c r="C12" s="10" t="s">
+        <v>1261</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -10670,6 +13112,9 @@
       <c r="B13" s="2" t="s">
         <v>780</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -10678,6 +13123,9 @@
       <c r="B14" s="2" t="s">
         <v>781</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>1263</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -10686,6 +13134,9 @@
       <c r="B15" s="2" t="s">
         <v>783</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -10694,285 +13145,393 @@
       <c r="B16" s="2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>702</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
@@ -10984,8 +13543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1762801B-637B-49FE-9B90-86176BECB2BC}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11011,6 +13570,9 @@
       <c r="B2" s="2" t="s">
         <v>796</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -11019,6 +13581,9 @@
       <c r="B3" s="2" t="s">
         <v>794</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -11027,6 +13592,9 @@
       <c r="B4" s="2" t="s">
         <v>795</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>1203</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -11035,6 +13603,9 @@
       <c r="B5" s="2" t="s">
         <v>797</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -11043,6 +13614,9 @@
       <c r="B6" s="2" t="s">
         <v>798</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>1205</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -11051,6 +13625,9 @@
       <c r="B7" s="2" t="s">
         <v>799</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -11059,6 +13636,9 @@
       <c r="B8" s="2" t="s">
         <v>801</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -11067,6 +13647,9 @@
       <c r="B9" s="2" t="s">
         <v>802</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -11075,6 +13658,9 @@
       <c r="B10" s="2" t="s">
         <v>800</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -11083,6 +13669,9 @@
       <c r="B11" s="2" t="s">
         <v>752</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>1210</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -11091,6 +13680,9 @@
       <c r="B12" s="2" t="s">
         <v>753</v>
       </c>
+      <c r="C12" s="10" t="s">
+        <v>1211</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -11099,6 +13691,9 @@
       <c r="B13" s="2" t="s">
         <v>754</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>1212</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -11107,6 +13702,9 @@
       <c r="B14" s="2" t="s">
         <v>774</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>1213</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -11115,6 +13713,9 @@
       <c r="B15" s="2" t="s">
         <v>775</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -11123,285 +13724,393 @@
       <c r="B16" s="2" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>745</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -11413,8 +14122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A98A12-DAF0-4622-AADA-4B91622A63CC}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11440,6 +14149,9 @@
       <c r="B2" s="2" t="s">
         <v>847</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -11448,6 +14160,9 @@
       <c r="B3" s="2" t="s">
         <v>846</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -11456,6 +14171,9 @@
       <c r="B4" s="2" t="s">
         <v>844</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -11464,6 +14182,9 @@
       <c r="B5" s="2" t="s">
         <v>843</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>1154</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -11472,6 +14193,9 @@
       <c r="B6" s="2" t="s">
         <v>842</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>1155</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -11480,6 +14204,9 @@
       <c r="B7" s="2" t="s">
         <v>876</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -11488,6 +14215,9 @@
       <c r="B8" s="2" t="s">
         <v>877</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -11496,6 +14226,9 @@
       <c r="B9" s="2" t="s">
         <v>875</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>1158</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -11504,6 +14237,9 @@
       <c r="B10" s="2" t="s">
         <v>816</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>1159</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -11512,6 +14248,9 @@
       <c r="B11" s="2" t="s">
         <v>815</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -11520,6 +14259,9 @@
       <c r="B12" s="2" t="s">
         <v>817</v>
       </c>
+      <c r="C12" s="10" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -11528,6 +14270,9 @@
       <c r="B13" s="2" t="s">
         <v>812</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>1162</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -11536,6 +14281,9 @@
       <c r="B14" s="2" t="s">
         <v>814</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -11544,6 +14292,9 @@
       <c r="B15" s="2" t="s">
         <v>813</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -11552,285 +14303,393 @@
       <c r="B16" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>824</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -11842,8 +14701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7890E3E-0862-41DC-B651-F43A676995EB}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11869,6 +14728,9 @@
       <c r="B2" s="2" t="s">
         <v>902</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -11877,6 +14739,9 @@
       <c r="B3" s="2" t="s">
         <v>900</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -11885,6 +14750,9 @@
       <c r="B4" s="2" t="s">
         <v>901</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -11893,6 +14761,9 @@
       <c r="B5" s="2" t="s">
         <v>899</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -11901,6 +14772,9 @@
       <c r="B6" s="2" t="s">
         <v>898</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -11909,6 +14783,9 @@
       <c r="B7" s="2" t="s">
         <v>896</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -11917,6 +14794,9 @@
       <c r="B8" s="2" t="s">
         <v>897</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -11925,6 +14805,9 @@
       <c r="B9" s="2" t="s">
         <v>894</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -11933,6 +14816,9 @@
       <c r="B10" s="2" t="s">
         <v>893</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -11941,6 +14827,9 @@
       <c r="B11" s="2" t="s">
         <v>895</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -11949,6 +14838,9 @@
       <c r="B12" s="2" t="s">
         <v>890</v>
       </c>
+      <c r="C12" s="10" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -11957,6 +14849,9 @@
       <c r="B13" s="2" t="s">
         <v>892</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -11965,6 +14860,9 @@
       <c r="B14" s="2" t="s">
         <v>891</v>
       </c>
+      <c r="C14" s="10" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -11973,6 +14871,9 @@
       <c r="B15" s="2" t="s">
         <v>888</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -11981,285 +14882,393 @@
       <c r="B16" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="10" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>845</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1150</v>
       </c>
     </row>
   </sheetData>
